--- a/5-Software Service Catalog -SS/Forms/Bug Form - F7.xlsx
+++ b/5-Software Service Catalog -SS/Forms/Bug Form - F7.xlsx
@@ -5,19 +5,19 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QMS\5-Software Service Catalog -SS\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QMS\1-Software Development Lifecycle\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C38C033-4D9E-4626-8C9C-58BCEBDA4B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1478CD2A-BAA3-493A-802E-84DB40DC600F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="1935" windowWidth="15375" windowHeight="7875" xr2:uid="{0FD72531-45CD-44DA-85CA-64CA552C7522}"/>
+    <workbookView xWindow="20370" yWindow="-2595" windowWidth="29040" windowHeight="15840" xr2:uid="{0FD72531-45CD-44DA-85CA-64CA552C7522}"/>
   </bookViews>
   <sheets>
-    <sheet name="S-SW-SC-07" sheetId="1" r:id="rId1"/>
+    <sheet name="F-SW-SD-07" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'S-SW-SC-07'!$A$1:$F$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'F-SW-SD-07'!$A$1:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -746,8 +746,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,7 +985,7 @@
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;16Issue No.:(1)&amp;C&amp;"Arial,Regular"&amp;16F-SW-SD/07&amp;R&amp;"Arial,Regular"&amp;16Rev: 0(0/0/2023)</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;16Issue No.:(1)&amp;C&amp;"Arial,Regular"&amp;16F-SW-SD/07&amp;R&amp;"Arial,Regular"&amp;16Rev: 0(01/10/2025)</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
   <extLst>
